--- a/vocabulary/family-life.xlsx
+++ b/vocabulary/family-life.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C237570-4D23-7841-9666-DC24D63FC1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{706DDA6B-E309-384B-ABEB-0866B326D17B}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3840,7 +3834,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3903,7 +3897,6 @@
         <sz val="15"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -3923,7 +3916,6 @@
         <sz val="15"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -3943,7 +3935,6 @@
         <sz val="15"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -3963,7 +3954,6 @@
         <sz val="15"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -3983,7 +3973,6 @@
         <sz val="15"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -4003,15 +3992,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DF21AF4-7E2B-084E-9AE2-F74A495A8436}" name="Table1" displayName="Table1" ref="A1:C1495" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:C1495" xr:uid="{B48F891C-E9AC-9E4E-9C1D-10B9B9A16A10}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C662">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1495" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C1495"/>
+  <sortState ref="A2:C662">
     <sortCondition ref="B1:B1495"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{29AAE3F5-03E7-F945-9247-B1761DA6A747}" name="#" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{323D7A95-DAF1-A948-A986-581E9906708D}" name="English" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1731605F-EEB7-BD45-8CA4-E2D248FD44F3}" name="Meaning" dataDxfId="2"/>
+    <tableColumn id="1" name="#" dataDxfId="2"/>
+    <tableColumn id="2" name="English" dataDxfId="1"/>
+    <tableColumn id="3" name="Meaning" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4306,28 +4295,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C80253-9DD9-0543-A70C-FF20C7301677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C662"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="60.83203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.69921875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="60.69921875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4338,7 +4327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -4346,7 +4335,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>246</v>
       </c>
@@ -4354,7 +4343,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>661</v>
       </c>
@@ -4362,7 +4351,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>725</v>
       </c>
@@ -4370,7 +4359,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
@@ -4378,7 +4367,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>616</v>
       </c>
@@ -4386,7 +4375,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>826</v>
       </c>
@@ -4394,7 +4383,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>1150</v>
       </c>
@@ -4402,7 +4391,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>1212</v>
       </c>
@@ -4410,7 +4399,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>1214</v>
       </c>
@@ -4418,7 +4407,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>1088</v>
       </c>
@@ -4426,7 +4415,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>533</v>
       </c>
@@ -4434,7 +4423,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>1227</v>
       </c>
@@ -4442,7 +4431,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>651</v>
       </c>
@@ -4450,7 +4439,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>727</v>
       </c>
@@ -4458,7 +4447,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>535</v>
       </c>
@@ -4466,7 +4455,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>232</v>
       </c>
@@ -4474,7 +4463,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>243</v>
       </c>
@@ -4482,7 +4471,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
@@ -4490,7 +4479,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>583</v>
       </c>
@@ -4498,7 +4487,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>1258</v>
       </c>
@@ -4506,7 +4495,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>1107</v>
       </c>
@@ -4514,7 +4503,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>211</v>
       </c>
@@ -4522,7 +4511,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
@@ -4530,7 +4519,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>1131</v>
       </c>
@@ -4538,7 +4527,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>164</v>
       </c>
@@ -4546,7 +4535,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>107</v>
       </c>
@@ -4554,7 +4543,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
@@ -4562,7 +4551,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>998</v>
       </c>
@@ -4570,7 +4559,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>231</v>
       </c>
@@ -4578,7 +4567,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>1206</v>
       </c>
@@ -4586,7 +4575,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -4594,7 +4583,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>1073</v>
       </c>
@@ -4602,7 +4591,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>135</v>
       </c>
@@ -4610,7 +4599,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>1169</v>
       </c>
@@ -4618,7 +4607,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>274</v>
       </c>
@@ -4626,7 +4615,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>254</v>
       </c>
@@ -4634,7 +4623,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>196</v>
       </c>
@@ -4642,7 +4631,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>568</v>
       </c>
@@ -4650,7 +4639,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
@@ -4658,7 +4647,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>176</v>
       </c>
@@ -4666,7 +4655,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>864</v>
       </c>
@@ -4674,7 +4663,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>1105</v>
       </c>
@@ -4682,7 +4671,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>789</v>
       </c>
@@ -4690,7 +4679,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>634</v>
       </c>
@@ -4698,7 +4687,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
         <v>1000</v>
       </c>
@@ -4706,7 +4695,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>531</v>
       </c>
@@ -4714,7 +4703,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>1035</v>
       </c>
@@ -4722,7 +4711,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
         <v>511</v>
       </c>
@@ -4730,7 +4719,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>523</v>
       </c>
@@ -4738,7 +4727,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
         <v>913</v>
       </c>
@@ -4746,7 +4735,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>810</v>
       </c>
@@ -4754,7 +4743,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>1262</v>
       </c>
@@ -4762,7 +4751,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>1147</v>
       </c>
@@ -4770,7 +4759,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
         <v>671</v>
       </c>
@@ -4778,7 +4767,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>247</v>
       </c>
@@ -4786,7 +4775,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
         <v>636</v>
       </c>
@@ -4794,7 +4783,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="59" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>239</v>
       </c>
@@ -4802,7 +4791,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>986</v>
       </c>
@@ -4810,7 +4799,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>558</v>
       </c>
@@ -4818,7 +4807,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>237</v>
       </c>
@@ -4826,7 +4815,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>192</v>
       </c>
@@ -4834,7 +4823,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
         <v>853</v>
       </c>
@@ -4842,7 +4831,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
         <v>539</v>
       </c>
@@ -4850,7 +4839,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
         <v>118</v>
       </c>
@@ -4858,7 +4847,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>820</v>
       </c>
@@ -4866,7 +4855,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>119</v>
       </c>
@@ -4874,7 +4863,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>69</v>
       </c>
@@ -4882,7 +4871,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>110</v>
       </c>
@@ -4890,7 +4879,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
         <v>245</v>
       </c>
@@ -4898,7 +4887,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
         <v>1167</v>
       </c>
@@ -4906,7 +4895,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
         <v>697</v>
       </c>
@@ -4914,7 +4903,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="74" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
         <v>765</v>
       </c>
@@ -4922,7 +4911,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>113</v>
       </c>
@@ -4930,7 +4919,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
         <v>116</v>
       </c>
@@ -4938,7 +4927,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
         <v>812</v>
       </c>
@@ -4946,7 +4935,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
         <v>248</v>
       </c>
@@ -4954,7 +4943,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="79" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>791</v>
       </c>
@@ -4962,7 +4951,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="80" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
         <v>90</v>
       </c>
@@ -4970,7 +4959,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="81" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
         <v>26</v>
       </c>
@@ -4978,7 +4967,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="82" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
         <v>1066</v>
       </c>
@@ -4986,7 +4975,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="83" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>97</v>
       </c>
@@ -4994,7 +4983,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
         <v>244</v>
       </c>
@@ -5002,7 +4991,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="85" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
         <v>29</v>
       </c>
@@ -5010,7 +4999,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="86" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
         <v>761</v>
       </c>
@@ -5018,7 +5007,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
         <v>132</v>
       </c>
@@ -5026,7 +5015,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="88" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>1086</v>
       </c>
@@ -5034,7 +5023,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
         <v>1137</v>
       </c>
@@ -5042,7 +5031,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="90" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
         <v>1116</v>
       </c>
@@ -5050,7 +5039,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="91" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
         <v>556</v>
       </c>
@@ -5058,7 +5047,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>988</v>
       </c>
@@ -5066,7 +5055,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
         <v>749</v>
       </c>
@@ -5074,7 +5063,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
         <v>249</v>
       </c>
@@ -5082,7 +5071,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
         <v>1080</v>
       </c>
@@ -5090,7 +5079,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="96" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
         <v>932</v>
       </c>
@@ -5098,7 +5087,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="97" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>105</v>
       </c>
@@ -5106,7 +5095,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="98" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>935</v>
       </c>
@@ -5114,7 +5103,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="99" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>613</v>
       </c>
@@ -5122,7 +5111,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="100" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
         <v>67</v>
       </c>
@@ -5130,7 +5119,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="101" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
         <v>148</v>
       </c>
@@ -5138,7 +5127,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="102" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
         <v>1171</v>
       </c>
@@ -5146,7 +5135,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="103" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
         <v>80</v>
       </c>
@@ -5154,7 +5143,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
         <v>167</v>
       </c>
@@ -5162,7 +5151,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
         <v>747</v>
       </c>
@@ -5170,7 +5159,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="106" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
         <v>263</v>
       </c>
@@ -5178,7 +5167,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="107" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
         <v>138</v>
       </c>
@@ -5186,7 +5175,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="108" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
         <v>1210</v>
       </c>
@@ -5194,7 +5183,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="109" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
         <v>734</v>
       </c>
@@ -5202,7 +5191,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="110" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
         <v>265</v>
       </c>
@@ -5210,7 +5199,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="111" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="s">
         <v>264</v>
       </c>
@@ -5218,7 +5207,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
         <v>36</v>
       </c>
@@ -5226,7 +5215,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="113" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="1" t="s">
         <v>40</v>
       </c>
@@ -5234,7 +5223,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
         <v>604</v>
       </c>
@@ -5242,7 +5231,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
         <v>804</v>
       </c>
@@ -5250,7 +5239,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="116" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
         <v>1049</v>
       </c>
@@ -5258,7 +5247,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="117" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="1" t="s">
         <v>768</v>
       </c>
@@ -5266,7 +5255,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="118" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
         <v>111</v>
       </c>
@@ -5274,7 +5263,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="119" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
         <v>108</v>
       </c>
@@ -5282,7 +5271,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="120" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
         <v>758</v>
       </c>
@@ -5290,7 +5279,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="121" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="1" t="s">
         <v>114</v>
       </c>
@@ -5298,7 +5287,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="122" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
         <v>120</v>
       </c>
@@ -5306,7 +5295,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
         <v>238</v>
       </c>
@@ -5314,7 +5303,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="124" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
         <v>808</v>
       </c>
@@ -5322,7 +5311,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="125" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="1" t="s">
         <v>858</v>
       </c>
@@ -5330,7 +5319,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="126" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="1" t="s">
         <v>836</v>
       </c>
@@ -5338,7 +5327,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="127" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="1" t="s">
         <v>68</v>
       </c>
@@ -5346,7 +5335,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="128" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="1" t="s">
         <v>585</v>
       </c>
@@ -5354,7 +5343,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="129" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="1" t="s">
         <v>519</v>
       </c>
@@ -5362,7 +5351,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="130" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="1" t="s">
         <v>188</v>
       </c>
@@ -5370,7 +5359,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="131" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
         <v>1127</v>
       </c>
@@ -5378,7 +5367,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="132" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="1" t="s">
         <v>1078</v>
       </c>
@@ -5386,7 +5375,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="133" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="1" t="s">
         <v>924</v>
       </c>
@@ -5394,7 +5383,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="134" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="1" t="s">
         <v>204</v>
       </c>
@@ -5402,7 +5391,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="135" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
         <v>1010</v>
       </c>
@@ -5410,7 +5399,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="136" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="1" t="s">
         <v>269</v>
       </c>
@@ -5418,7 +5407,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
         <v>1039</v>
       </c>
@@ -5426,7 +5415,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="138" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="1" t="s">
         <v>262</v>
       </c>
@@ -5434,7 +5423,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="139" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="1" t="s">
         <v>31</v>
       </c>
@@ -5442,7 +5431,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="140" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="1" t="s">
         <v>778</v>
       </c>
@@ -5450,7 +5439,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="141" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="1" t="s">
         <v>597</v>
       </c>
@@ -5458,7 +5447,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="142" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="1" t="s">
         <v>838</v>
       </c>
@@ -5466,7 +5455,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="143" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="1" t="s">
         <v>62</v>
       </c>
@@ -5474,7 +5463,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="144" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="1" t="s">
         <v>102</v>
       </c>
@@ -5482,7 +5471,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="145" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="1" t="s">
         <v>33</v>
       </c>
@@ -5490,7 +5479,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="146" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
         <v>793</v>
       </c>
@@ -5498,7 +5487,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="147" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="1" t="s">
         <v>157</v>
       </c>
@@ -5506,7 +5495,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="148" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="1" t="s">
         <v>106</v>
       </c>
@@ -5514,7 +5503,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="1" t="s">
         <v>676</v>
       </c>
@@ -5522,7 +5511,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="150" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="1" t="s">
         <v>964</v>
       </c>
@@ -5530,7 +5519,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="151" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="1" t="s">
         <v>256</v>
       </c>
@@ -5538,7 +5527,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
         <v>270</v>
       </c>
@@ -5546,7 +5535,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="153" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="1" t="s">
         <v>726</v>
       </c>
@@ -5554,7 +5543,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="154" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="1" t="s">
         <v>71</v>
       </c>
@@ -5562,7 +5551,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="155" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
         <v>880</v>
       </c>
@@ -5570,7 +5559,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="156" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="1" t="s">
         <v>638</v>
       </c>
@@ -5578,7 +5567,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="157" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="1" t="s">
         <v>851</v>
       </c>
@@ -5586,7 +5575,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="158" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="1" t="s">
         <v>150</v>
       </c>
@@ -5594,7 +5583,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="159" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="1" t="s">
         <v>566</v>
       </c>
@@ -5602,7 +5591,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="160" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="1" t="s">
         <v>252</v>
       </c>
@@ -5610,7 +5599,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="161" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="1" t="s">
         <v>624</v>
       </c>
@@ -5618,7 +5607,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="162" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="1" t="s">
         <v>228</v>
       </c>
@@ -5626,7 +5615,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="163" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="1" t="s">
         <v>153</v>
       </c>
@@ -5634,7 +5623,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="164" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="1" t="s">
         <v>77</v>
       </c>
@@ -5642,7 +5631,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="165" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="1" t="s">
         <v>918</v>
       </c>
@@ -5650,7 +5639,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="166" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="1" t="s">
         <v>1252</v>
       </c>
@@ -5658,7 +5647,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="167" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
         <v>227</v>
       </c>
@@ -5666,7 +5655,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="168" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="1" t="s">
         <v>20</v>
       </c>
@@ -5674,7 +5663,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="169" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="1" t="s">
         <v>100</v>
       </c>
@@ -5682,7 +5671,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="170" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="1" t="s">
         <v>101</v>
       </c>
@@ -5690,7 +5679,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="1" t="s">
         <v>168</v>
       </c>
@@ -5698,7 +5687,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="172" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="1" t="s">
         <v>1085</v>
       </c>
@@ -5706,7 +5695,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="173" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="1" t="s">
         <v>55</v>
       </c>
@@ -5714,7 +5703,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="174" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="1" t="s">
         <v>158</v>
       </c>
@@ -5722,7 +5711,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="175" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
         <v>647</v>
       </c>
@@ -5730,7 +5719,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="176" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="1" t="s">
         <v>798</v>
       </c>
@@ -5738,7 +5727,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="177" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="1" t="s">
         <v>1092</v>
       </c>
@@ -5746,7 +5735,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="178" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="1" t="s">
         <v>587</v>
       </c>
@@ -5754,7 +5743,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="179" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="1" t="s">
         <v>1187</v>
       </c>
@@ -5762,7 +5751,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="180" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="1" t="s">
         <v>1236</v>
       </c>
@@ -5770,7 +5759,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="181" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="1" t="s">
         <v>93</v>
       </c>
@@ -5778,7 +5767,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="182" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="1" t="s">
         <v>1143</v>
       </c>
@@ -5786,7 +5775,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="183" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="1" t="s">
         <v>64</v>
       </c>
@@ -5794,7 +5783,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="184" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
         <v>179</v>
       </c>
@@ -5802,7 +5791,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="185" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="1" t="s">
         <v>240</v>
       </c>
@@ -5810,7 +5799,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="186" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="1" t="s">
         <v>258</v>
       </c>
@@ -5818,7 +5807,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="187" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="1" t="s">
         <v>15</v>
       </c>
@@ -5826,7 +5815,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="188" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
         <v>737</v>
       </c>
@@ -5834,7 +5823,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="189" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
         <v>907</v>
       </c>
@@ -5842,7 +5831,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="190" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="1" t="s">
         <v>643</v>
       </c>
@@ -5850,7 +5839,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="191" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="1" t="s">
         <v>1026</v>
       </c>
@@ -5858,7 +5847,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="192" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="1" t="s">
         <v>657</v>
       </c>
@@ -5866,7 +5855,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="193" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
         <v>225</v>
       </c>
@@ -5874,7 +5863,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="1" t="s">
         <v>581</v>
       </c>
@@ -5882,7 +5871,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="195" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="1" t="s">
         <v>1139</v>
       </c>
@@ -5890,7 +5879,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="196" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="1" t="s">
         <v>751</v>
       </c>
@@ -5898,7 +5887,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="197" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
         <v>1094</v>
       </c>
@@ -5906,7 +5895,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="198" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="1" t="s">
         <v>139</v>
       </c>
@@ -5914,7 +5903,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="199" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="1" t="s">
         <v>10</v>
       </c>
@@ -5922,7 +5911,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="200" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="1" t="s">
         <v>53</v>
       </c>
@@ -5930,7 +5919,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="201" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="1" t="s">
         <v>1016</v>
       </c>
@@ -5938,7 +5927,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="202" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="1" t="s">
         <v>1240</v>
       </c>
@@ -5946,7 +5935,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="203" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="1" t="s">
         <v>736</v>
       </c>
@@ -5954,7 +5943,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="204" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="1" t="s">
         <v>21</v>
       </c>
@@ -5962,7 +5951,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="1" t="s">
         <v>596</v>
       </c>
@@ -5970,7 +5959,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="206" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="1" t="s">
         <v>18</v>
       </c>
@@ -5978,7 +5967,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="207" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="1" t="s">
         <v>1047</v>
       </c>
@@ -5986,7 +5975,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="208" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="1" t="s">
         <v>934</v>
       </c>
@@ -5994,7 +5983,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="1" t="s">
         <v>217</v>
       </c>
@@ -6002,7 +5991,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="1" t="s">
         <v>98</v>
       </c>
@@ -6010,7 +5999,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="1" t="s">
         <v>1084</v>
       </c>
@@ -6018,7 +6007,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="1" t="s">
         <v>550</v>
       </c>
@@ -6026,7 +6015,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="1" t="s">
         <v>1156</v>
       </c>
@@ -6034,7 +6023,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="214" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="1" t="s">
         <v>1242</v>
       </c>
@@ -6042,7 +6031,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="215" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="1" t="s">
         <v>602</v>
       </c>
@@ -6050,7 +6039,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="1" t="s">
         <v>883</v>
       </c>
@@ -6058,7 +6047,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="217" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="1" t="s">
         <v>509</v>
       </c>
@@ -6066,7 +6055,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="1" t="s">
         <v>687</v>
       </c>
@@ -6074,7 +6063,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="219" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="1" t="s">
         <v>1179</v>
       </c>
@@ -6082,7 +6071,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="220" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="1" t="s">
         <v>562</v>
       </c>
@@ -6090,7 +6079,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="221" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="1" t="s">
         <v>1134</v>
       </c>
@@ -6098,7 +6087,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="222" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="1" t="s">
         <v>834</v>
       </c>
@@ -6106,7 +6095,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="223" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="1" t="s">
         <v>1266</v>
       </c>
@@ -6114,7 +6103,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="224" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="1" t="s">
         <v>512</v>
       </c>
@@ -6122,7 +6111,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="225" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="1" t="s">
         <v>920</v>
       </c>
@@ -6130,7 +6119,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="226" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="1" t="s">
         <v>996</v>
       </c>
@@ -6138,7 +6127,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="227" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="1" t="s">
         <v>1221</v>
       </c>
@@ -6146,7 +6135,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="228" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="1" t="s">
         <v>979</v>
       </c>
@@ -6154,7 +6143,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="229" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="1" t="s">
         <v>1160</v>
       </c>
@@ -6162,7 +6151,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="230" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="1" t="s">
         <v>203</v>
       </c>
@@ -6170,7 +6159,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="231" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="1" t="s">
         <v>1268</v>
       </c>
@@ -6178,7 +6167,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="232" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="1" t="s">
         <v>141</v>
       </c>
@@ -6186,7 +6175,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="233" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="1" t="s">
         <v>685</v>
       </c>
@@ -6194,7 +6183,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="234" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="1" t="s">
         <v>926</v>
       </c>
@@ -6202,7 +6191,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="235" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="1" t="s">
         <v>554</v>
       </c>
@@ -6210,7 +6199,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="236" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="1" t="s">
         <v>259</v>
       </c>
@@ -6218,7 +6207,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="237" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="1" t="s">
         <v>229</v>
       </c>
@@ -6226,7 +6215,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="238" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="1" t="s">
         <v>898</v>
       </c>
@@ -6234,7 +6223,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="239" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="1" t="s">
         <v>79</v>
       </c>
@@ -6242,7 +6231,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="240" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="1" t="s">
         <v>529</v>
       </c>
@@ -6250,7 +6239,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="241" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="1" t="s">
         <v>678</v>
       </c>
@@ -6258,7 +6247,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="242" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="1" t="s">
         <v>855</v>
       </c>
@@ -6266,7 +6255,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="243" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="1" t="s">
         <v>1037</v>
       </c>
@@ -6274,7 +6263,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="244" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="1" t="s">
         <v>903</v>
       </c>
@@ -6282,7 +6271,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="245" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="1" t="s">
         <v>272</v>
       </c>
@@ -6290,7 +6279,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="246" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="1" t="s">
         <v>184</v>
       </c>
@@ -6298,7 +6287,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="247" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="1" t="s">
         <v>233</v>
       </c>
@@ -6306,7 +6295,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="248" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="1" t="s">
         <v>156</v>
       </c>
@@ -6314,7 +6303,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="249" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="1" t="s">
         <v>154</v>
       </c>
@@ -6322,7 +6311,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="250" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="1" t="s">
         <v>155</v>
       </c>
@@ -6330,7 +6319,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="251" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="1" t="s">
         <v>547</v>
       </c>
@@ -6338,7 +6327,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="252" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B252" s="1" t="s">
         <v>70</v>
       </c>
@@ -6346,7 +6335,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="253" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="1" t="s">
         <v>901</v>
       </c>
@@ -6354,7 +6343,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="254" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="1" t="s">
         <v>1229</v>
       </c>
@@ -6362,7 +6351,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="255" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="1" t="s">
         <v>133</v>
       </c>
@@ -6370,7 +6359,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="256" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="1" t="s">
         <v>82</v>
       </c>
@@ -6378,7 +6367,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="257" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="1" t="s">
         <v>3</v>
       </c>
@@ -6386,7 +6375,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="258" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="1" t="s">
         <v>49</v>
       </c>
@@ -6394,7 +6383,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="259" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="1" t="s">
         <v>54</v>
       </c>
@@ -6402,7 +6391,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="260" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="1" t="s">
         <v>659</v>
       </c>
@@ -6410,7 +6399,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="261" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="1" t="s">
         <v>4</v>
       </c>
@@ -6418,7 +6407,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="262" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="1" t="s">
         <v>911</v>
       </c>
@@ -6426,7 +6415,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="263" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="1" t="s">
         <v>160</v>
       </c>
@@ -6434,7 +6423,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="264" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="1" t="s">
         <v>257</v>
       </c>
@@ -6442,7 +6431,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="265" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="1" t="s">
         <v>887</v>
       </c>
@@ -6450,7 +6439,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="266" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="1" t="s">
         <v>125</v>
       </c>
@@ -6458,7 +6447,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="267" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="1" t="s">
         <v>66</v>
       </c>
@@ -6466,7 +6455,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="268" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="1" t="s">
         <v>521</v>
       </c>
@@ -6474,7 +6463,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="269" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="1" t="s">
         <v>716</v>
       </c>
@@ -6482,7 +6471,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="270" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="1" t="s">
         <v>889</v>
       </c>
@@ -6490,7 +6479,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="271" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="1" t="s">
         <v>1193</v>
       </c>
@@ -6498,7 +6487,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="272" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="1" t="s">
         <v>81</v>
       </c>
@@ -6506,7 +6495,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="273" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="1" t="s">
         <v>2</v>
       </c>
@@ -6514,7 +6503,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="274" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="1" t="s">
         <v>172</v>
       </c>
@@ -6522,7 +6511,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="275" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="1" t="s">
         <v>50</v>
       </c>
@@ -6530,7 +6519,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="276" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="1" t="s">
         <v>5</v>
       </c>
@@ -6538,7 +6527,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="277" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="1" t="s">
         <v>200</v>
       </c>
@@ -6546,7 +6535,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="278" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="1" t="s">
         <v>181</v>
       </c>
@@ -6554,7 +6543,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="279" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="1" t="s">
         <v>28</v>
       </c>
@@ -6562,7 +6551,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="280" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="1" t="s">
         <v>628</v>
       </c>
@@ -6570,7 +6559,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="281" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="1" t="s">
         <v>25</v>
       </c>
@@ -6578,7 +6567,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="282" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="1" t="s">
         <v>572</v>
       </c>
@@ -6586,7 +6575,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="283" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="1" t="s">
         <v>782</v>
       </c>
@@ -6594,7 +6583,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="284" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="1" t="s">
         <v>27</v>
       </c>
@@ -6602,7 +6591,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="285" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="1" t="s">
         <v>8</v>
       </c>
@@ -6610,7 +6599,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="286" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="1" t="s">
         <v>755</v>
       </c>
@@ -6618,7 +6607,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="287" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="1" t="s">
         <v>541</v>
       </c>
@@ -6626,7 +6615,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="288" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="1" t="s">
         <v>205</v>
       </c>
@@ -6634,7 +6623,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="289" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="1" t="s">
         <v>63</v>
       </c>
@@ -6642,7 +6631,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="290" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="1" t="s">
         <v>1195</v>
       </c>
@@ -6650,7 +6639,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="291" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="1" t="s">
         <v>234</v>
       </c>
@@ -6658,7 +6647,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="292" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="1" t="s">
         <v>860</v>
       </c>
@@ -6666,7 +6655,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="293" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="1" t="s">
         <v>1152</v>
       </c>
@@ -6674,7 +6663,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="294" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="1" t="s">
         <v>1197</v>
       </c>
@@ -6682,7 +6671,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="295" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="1" t="s">
         <v>905</v>
       </c>
@@ -6690,7 +6679,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="296" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="1" t="s">
         <v>1264</v>
       </c>
@@ -6698,7 +6687,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="297" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="1" t="s">
         <v>1135</v>
       </c>
@@ -6706,7 +6695,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="298" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="1" t="s">
         <v>127</v>
       </c>
@@ -6714,7 +6703,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="299" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="1" t="s">
         <v>266</v>
       </c>
@@ -6722,7 +6711,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="300" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="1" t="s">
         <v>629</v>
       </c>
@@ -6730,7 +6719,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="301" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="1" t="s">
         <v>1082</v>
       </c>
@@ -6738,7 +6727,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="302" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="1" t="s">
         <v>763</v>
       </c>
@@ -6746,7 +6735,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="303" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="1" t="s">
         <v>1181</v>
       </c>
@@ -6754,7 +6743,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="304" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="1" t="s">
         <v>1224</v>
       </c>
@@ -6762,7 +6751,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="305" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B305" s="1" t="s">
         <v>65</v>
       </c>
@@ -6770,7 +6759,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="306" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="1" t="s">
         <v>1077</v>
       </c>
@@ -6778,7 +6767,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="307" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="1" t="s">
         <v>186</v>
       </c>
@@ -6786,7 +6775,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="308" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="1" t="s">
         <v>58</v>
       </c>
@@ -6794,7 +6783,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="309" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="1" t="s">
         <v>849</v>
       </c>
@@ -6802,7 +6791,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="310" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B310" s="1" t="s">
         <v>60</v>
       </c>
@@ -6810,7 +6799,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="311" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B311" s="1" t="s">
         <v>23</v>
       </c>
@@ -6818,7 +6807,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="312" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B312" s="1" t="s">
         <v>1064</v>
       </c>
@@ -6826,7 +6815,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="313" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="1" t="s">
         <v>893</v>
       </c>
@@ -6834,7 +6823,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="314" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B314" s="1" t="s">
         <v>75</v>
       </c>
@@ -6842,7 +6831,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="315" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="1" t="s">
         <v>1216</v>
       </c>
@@ -6850,7 +6839,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="316" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B316" s="1" t="s">
         <v>937</v>
       </c>
@@ -6858,7 +6847,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="317" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B317" s="1" t="s">
         <v>224</v>
       </c>
@@ -6866,7 +6855,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="318" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B318" s="1" t="s">
         <v>928</v>
       </c>
@@ -6874,7 +6863,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="319" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B319" s="1" t="s">
         <v>564</v>
       </c>
@@ -6882,7 +6871,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="320" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B320" s="1" t="s">
         <v>44</v>
       </c>
@@ -6890,7 +6879,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="321" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B321" s="1" t="s">
         <v>96</v>
       </c>
@@ -6898,7 +6887,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="322" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B322" s="1" t="s">
         <v>589</v>
       </c>
@@ -6906,7 +6895,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="323" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B323" s="1" t="s">
         <v>1075</v>
       </c>
@@ -6914,7 +6903,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="324" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B324" s="1" t="s">
         <v>84</v>
       </c>
@@ -6922,7 +6911,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="325" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B325" s="1" t="s">
         <v>1111</v>
       </c>
@@ -6930,7 +6919,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="326" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B326" s="1" t="s">
         <v>862</v>
       </c>
@@ -6938,7 +6927,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="327" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B327" s="1" t="s">
         <v>219</v>
       </c>
@@ -6946,7 +6935,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="328" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B328" s="1" t="s">
         <v>916</v>
       </c>
@@ -6954,7 +6943,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="329" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B329" s="1" t="s">
         <v>873</v>
       </c>
@@ -6962,7 +6951,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="330" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B330" s="1" t="s">
         <v>766</v>
       </c>
@@ -6970,7 +6959,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="331" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B331" s="1" t="s">
         <v>665</v>
       </c>
@@ -6978,7 +6967,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="332" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B332" s="1" t="s">
         <v>704</v>
       </c>
@@ -6986,7 +6975,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="333" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B333" s="1" t="s">
         <v>206</v>
       </c>
@@ -6994,7 +6983,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="334" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B334" s="1" t="s">
         <v>754</v>
       </c>
@@ -7002,7 +6991,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="335" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B335" s="1" t="s">
         <v>611</v>
       </c>
@@ -7010,7 +6999,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="336" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B336" s="1" t="s">
         <v>1222</v>
       </c>
@@ -7018,7 +7007,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="337" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B337" s="1" t="s">
         <v>832</v>
       </c>
@@ -7026,7 +7015,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="338" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B338" s="1" t="s">
         <v>147</v>
       </c>
@@ -7034,7 +7023,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="339" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B339" s="1" t="s">
         <v>945</v>
       </c>
@@ -7042,7 +7031,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="340" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B340" s="1" t="s">
         <v>885</v>
       </c>
@@ -7050,7 +7039,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="341" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B341" s="1" t="s">
         <v>841</v>
       </c>
@@ -7058,7 +7047,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="342" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B342" s="1" t="s">
         <v>146</v>
       </c>
@@ -7066,7 +7055,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="343" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="1" t="s">
         <v>795</v>
       </c>
@@ -7074,7 +7063,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="344" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B344" s="1" t="s">
         <v>1189</v>
       </c>
@@ -7082,7 +7071,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="345" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B345" s="1" t="s">
         <v>939</v>
       </c>
@@ -7090,7 +7079,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="346" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" s="1" t="s">
         <v>655</v>
       </c>
@@ -7098,7 +7087,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="347" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B347" s="1" t="s">
         <v>775</v>
       </c>
@@ -7106,7 +7095,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="348" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B348" s="1" t="s">
         <v>577</v>
       </c>
@@ -7114,7 +7103,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="349" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B349" s="1" t="s">
         <v>185</v>
       </c>
@@ -7122,7 +7111,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="350" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B350" s="1" t="s">
         <v>866</v>
       </c>
@@ -7130,7 +7119,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="351" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B351" s="1" t="s">
         <v>822</v>
       </c>
@@ -7138,7 +7127,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="352" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B352" s="1" t="s">
         <v>124</v>
       </c>
@@ -7146,7 +7135,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="353" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="1" t="s">
         <v>195</v>
       </c>
@@ -7154,7 +7143,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="354" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="1" t="s">
         <v>1004</v>
       </c>
@@ -7162,7 +7151,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="355" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B355" s="1" t="s">
         <v>518</v>
       </c>
@@ -7170,7 +7159,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="356" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="1" t="s">
         <v>1254</v>
       </c>
@@ -7178,7 +7167,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="357" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="1" t="s">
         <v>780</v>
       </c>
@@ -7186,7 +7175,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="358" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="1" t="s">
         <v>952</v>
       </c>
@@ -7194,7 +7183,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="359" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="1" t="s">
         <v>1069</v>
       </c>
@@ -7202,7 +7191,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="360" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="1" t="s">
         <v>241</v>
       </c>
@@ -7210,7 +7199,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="361" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="1" t="s">
         <v>1096</v>
       </c>
@@ -7218,7 +7207,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="362" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="1" t="s">
         <v>693</v>
       </c>
@@ -7226,7 +7215,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="363" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="1" t="s">
         <v>177</v>
       </c>
@@ -7234,7 +7223,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="364" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B364" s="1" t="s">
         <v>72</v>
       </c>
@@ -7242,7 +7231,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="365" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="1" t="s">
         <v>653</v>
       </c>
@@ -7250,7 +7239,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="366" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="1" t="s">
         <v>199</v>
       </c>
@@ -7258,7 +7247,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="367" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="1" t="s">
         <v>1248</v>
       </c>
@@ -7266,7 +7255,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="368" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="1" t="s">
         <v>189</v>
       </c>
@@ -7274,7 +7263,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="369" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="1" t="s">
         <v>173</v>
       </c>
@@ -7282,7 +7271,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="370" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="1" t="s">
         <v>59</v>
       </c>
@@ -7290,7 +7279,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="371" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="1" t="s">
         <v>174</v>
       </c>
@@ -7298,7 +7287,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="372" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="1" t="s">
         <v>1166</v>
       </c>
@@ -7306,7 +7295,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="373" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="1" t="s">
         <v>786</v>
       </c>
@@ -7314,7 +7303,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="374" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B374" s="1" t="s">
         <v>35</v>
       </c>
@@ -7322,7 +7311,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="375" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="1" t="s">
         <v>1173</v>
       </c>
@@ -7330,7 +7319,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="376" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B376" s="1" t="s">
         <v>38</v>
       </c>
@@ -7338,7 +7327,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="377" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B377" s="1" t="s">
         <v>922</v>
       </c>
@@ -7346,7 +7335,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="378" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B378" s="1" t="s">
         <v>994</v>
       </c>
@@ -7354,7 +7343,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="379" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B379" s="1" t="s">
         <v>527</v>
       </c>
@@ -7362,7 +7351,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="380" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="1" t="s">
         <v>208</v>
       </c>
@@ -7370,7 +7359,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="381" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B381" s="1" t="s">
         <v>57</v>
       </c>
@@ -7378,7 +7367,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="382" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B382" s="1" t="s">
         <v>960</v>
       </c>
@@ -7386,7 +7375,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="383" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B383" s="1" t="s">
         <v>591</v>
       </c>
@@ -7394,7 +7383,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="384" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="1" t="s">
         <v>802</v>
       </c>
@@ -7402,7 +7391,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="385" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="1" t="s">
         <v>1053</v>
       </c>
@@ -7410,7 +7399,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="386" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="1" t="s">
         <v>1062</v>
       </c>
@@ -7418,7 +7407,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="387" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="1" t="s">
         <v>675</v>
       </c>
@@ -7426,7 +7415,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="388" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="1" t="s">
         <v>640</v>
       </c>
@@ -7434,7 +7423,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="389" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="1" t="s">
         <v>175</v>
       </c>
@@ -7442,7 +7431,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="390" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B390" s="1" t="s">
         <v>95</v>
       </c>
@@ -7450,7 +7439,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="391" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="1" t="s">
         <v>712</v>
       </c>
@@ -7458,7 +7447,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="392" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="1" t="s">
         <v>1260</v>
       </c>
@@ -7466,7 +7455,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="393" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="1" t="s">
         <v>134</v>
       </c>
@@ -7474,7 +7463,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="394" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="1" t="s">
         <v>1218</v>
       </c>
@@ -7482,7 +7471,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="395" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="1" t="s">
         <v>104</v>
       </c>
@@ -7490,7 +7479,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="396" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="1" t="s">
         <v>1231</v>
       </c>
@@ -7498,7 +7487,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="397" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="1" t="s">
         <v>966</v>
       </c>
@@ -7506,7 +7495,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="398" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="1" t="s">
         <v>1114</v>
       </c>
@@ -7514,7 +7503,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="399" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B399" s="1" t="s">
         <v>51</v>
       </c>
@@ -7522,7 +7511,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="400" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="1" t="s">
         <v>1006</v>
       </c>
@@ -7530,7 +7519,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="401" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="1" t="s">
         <v>1256</v>
       </c>
@@ -7538,7 +7527,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="402" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="1" t="s">
         <v>720</v>
       </c>
@@ -7546,7 +7535,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="403" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B403" s="1" t="s">
         <v>594</v>
       </c>
@@ -7554,7 +7543,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="404" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B404" s="1" t="s">
         <v>615</v>
       </c>
@@ -7562,7 +7551,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="405" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B405" s="1" t="s">
         <v>579</v>
       </c>
@@ -7570,7 +7559,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="406" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B406" s="1" t="s">
         <v>1203</v>
       </c>
@@ -7578,7 +7567,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="407" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B407" s="1" t="s">
         <v>194</v>
       </c>
@@ -7586,7 +7575,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="408" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B408" s="1" t="s">
         <v>947</v>
       </c>
@@ -7594,7 +7583,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="409" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B409" s="1" t="s">
         <v>649</v>
       </c>
@@ -7602,7 +7591,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="410" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B410" s="1" t="s">
         <v>1191</v>
       </c>
@@ -7610,7 +7599,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="411" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B411" s="1" t="s">
         <v>143</v>
       </c>
@@ -7618,7 +7607,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="412" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B412" s="1" t="s">
         <v>140</v>
       </c>
@@ -7626,7 +7615,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="413" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B413" s="1" t="s">
         <v>12</v>
       </c>
@@ -7634,7 +7623,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="414" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B414" s="1" t="s">
         <v>1158</v>
       </c>
@@ -7642,7 +7631,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="415" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B415" s="1" t="s">
         <v>214</v>
       </c>
@@ -7650,7 +7639,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="416" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B416" s="1" t="s">
         <v>230</v>
       </c>
@@ -7658,7 +7647,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="417" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B417" s="1" t="s">
         <v>1162</v>
       </c>
@@ -7666,7 +7655,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="418" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B418" s="1" t="s">
         <v>891</v>
       </c>
@@ -7674,7 +7663,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="419" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B419" s="1" t="s">
         <v>706</v>
       </c>
@@ -7682,7 +7671,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="420" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B420" s="1" t="s">
         <v>190</v>
       </c>
@@ -7690,7 +7679,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="421" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B421" s="1" t="s">
         <v>122</v>
       </c>
@@ -7698,7 +7687,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="422" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B422" s="1" t="s">
         <v>618</v>
       </c>
@@ -7706,7 +7695,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="423" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B423" s="1" t="s">
         <v>165</v>
       </c>
@@ -7714,7 +7703,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="424" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B424" s="1" t="s">
         <v>1051</v>
       </c>
@@ -7722,7 +7711,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="425" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B425" s="1" t="s">
         <v>131</v>
       </c>
@@ -7730,7 +7719,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="426" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B426" s="1" t="s">
         <v>548</v>
       </c>
@@ -7738,7 +7727,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="427" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B427" s="1" t="s">
         <v>271</v>
       </c>
@@ -7746,7 +7735,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="428" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B428" s="1" t="s">
         <v>1055</v>
       </c>
@@ -7754,7 +7743,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="429" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B429" s="1" t="s">
         <v>642</v>
       </c>
@@ -7762,7 +7751,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="430" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B430" s="1" t="s">
         <v>1060</v>
       </c>
@@ -7770,7 +7759,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="431" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B431" s="1" t="s">
         <v>9</v>
       </c>
@@ -7778,7 +7767,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="432" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B432" s="1" t="s">
         <v>1154</v>
       </c>
@@ -7786,7 +7775,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="433" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B433" s="1" t="s">
         <v>515</v>
       </c>
@@ -7794,7 +7783,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="434" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B434" s="1" t="s">
         <v>630</v>
       </c>
@@ -7802,7 +7791,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="435" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B435" s="1" t="s">
         <v>514</v>
       </c>
@@ -7810,7 +7799,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="436" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B436" s="1" t="s">
         <v>1238</v>
       </c>
@@ -7818,7 +7807,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="437" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B437" s="1" t="s">
         <v>899</v>
       </c>
@@ -7826,7 +7815,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="438" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B438" s="1" t="s">
         <v>30</v>
       </c>
@@ -7834,7 +7823,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="439" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B439" s="1" t="s">
         <v>1002</v>
       </c>
@@ -7842,7 +7831,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="440" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B440" s="1" t="s">
         <v>1129</v>
       </c>
@@ -7850,7 +7839,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="441" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B441" s="1" t="s">
         <v>545</v>
       </c>
@@ -7858,7 +7847,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="442" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B442" s="1" t="s">
         <v>620</v>
       </c>
@@ -7866,7 +7855,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="443" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B443" s="1" t="s">
         <v>878</v>
       </c>
@@ -7874,7 +7863,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="444" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B444" s="1" t="s">
         <v>756</v>
       </c>
@@ -7882,7 +7871,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="445" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B445" s="1" t="s">
         <v>86</v>
       </c>
@@ -7890,7 +7879,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="446" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B446" s="1" t="s">
         <v>166</v>
       </c>
@@ -7898,7 +7887,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="447" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B447" s="1" t="s">
         <v>267</v>
       </c>
@@ -7906,7 +7895,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="448" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B448" s="1" t="s">
         <v>599</v>
       </c>
@@ -7914,7 +7903,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="449" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B449" s="1" t="s">
         <v>954</v>
       </c>
@@ -7922,7 +7911,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="450" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B450" s="1" t="s">
         <v>570</v>
       </c>
@@ -7930,7 +7919,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="451" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B451" s="1" t="s">
         <v>126</v>
       </c>
@@ -7938,7 +7927,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="452" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B452" s="1" t="s">
         <v>824</v>
       </c>
@@ -7946,7 +7935,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="453" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B453" s="1" t="s">
         <v>1250</v>
       </c>
@@ -7954,7 +7943,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="454" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B454" s="1" t="s">
         <v>800</v>
       </c>
@@ -7962,7 +7951,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="455" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B455" s="1" t="s">
         <v>32</v>
       </c>
@@ -7970,7 +7959,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="456" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B456" s="1" t="s">
         <v>1177</v>
       </c>
@@ -7978,7 +7967,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="457" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B457" s="1" t="s">
         <v>1068</v>
       </c>
@@ -7986,7 +7975,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="458" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B458" s="1" t="s">
         <v>777</v>
       </c>
@@ -7994,7 +7983,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="459" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B459" s="1" t="s">
         <v>1141</v>
       </c>
@@ -8002,7 +7991,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="460" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B460" s="1" t="s">
         <v>909</v>
       </c>
@@ -8010,7 +7999,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="461" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B461" s="1" t="s">
         <v>739</v>
       </c>
@@ -8018,7 +8007,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="462" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B462" s="1" t="s">
         <v>1185</v>
       </c>
@@ -8026,7 +8015,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="463" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B463" s="1" t="s">
         <v>729</v>
       </c>
@@ -8034,7 +8023,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="464" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B464" s="1" t="s">
         <v>718</v>
       </c>
@@ -8042,7 +8031,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="465" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B465" s="1" t="s">
         <v>745</v>
       </c>
@@ -8050,7 +8039,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="466" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B466" s="1" t="s">
         <v>193</v>
       </c>
@@ -8058,7 +8047,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="467" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B467" s="1" t="s">
         <v>973</v>
       </c>
@@ -8066,7 +8055,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="468" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B468" s="1" t="s">
         <v>708</v>
       </c>
@@ -8074,7 +8063,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="469" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B469" s="1" t="s">
         <v>682</v>
       </c>
@@ -8082,7 +8071,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="470" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B470" s="1" t="s">
         <v>1234</v>
       </c>
@@ -8090,7 +8079,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="471" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B471" s="1" t="s">
         <v>1246</v>
       </c>
@@ -8098,7 +8087,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="472" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B472" s="1" t="s">
         <v>560</v>
       </c>
@@ -8106,7 +8095,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="473" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B473" s="1" t="s">
         <v>87</v>
       </c>
@@ -8114,7 +8103,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="474" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B474" s="1" t="s">
         <v>772</v>
       </c>
@@ -8122,7 +8111,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="475" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B475" s="1" t="s">
         <v>1033</v>
       </c>
@@ -8130,7 +8119,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="476" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B476" s="1" t="s">
         <v>268</v>
       </c>
@@ -8138,7 +8127,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="477" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B477" s="1" t="s">
         <v>610</v>
       </c>
@@ -8146,7 +8135,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="478" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B478" s="1" t="s">
         <v>830</v>
       </c>
@@ -8154,7 +8143,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="479" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B479" s="1" t="s">
         <v>741</v>
       </c>
@@ -8162,7 +8151,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="480" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B480" s="1" t="s">
         <v>13</v>
       </c>
@@ -8170,7 +8159,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="481" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B481" s="1" t="s">
         <v>593</v>
       </c>
@@ -8178,7 +8167,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="482" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B482" s="1" t="s">
         <v>56</v>
       </c>
@@ -8186,7 +8175,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="483" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B483" s="1" t="s">
         <v>977</v>
       </c>
@@ -8194,7 +8183,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="484" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B484" s="1" t="s">
         <v>1100</v>
       </c>
@@ -8202,7 +8191,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="485" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B485" s="1" t="s">
         <v>253</v>
       </c>
@@ -8210,7 +8199,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="486" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B486" s="1" t="s">
         <v>221</v>
       </c>
@@ -8218,7 +8207,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="487" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B487" s="1" t="s">
         <v>42</v>
       </c>
@@ -8226,7 +8215,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="488" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B488" s="1" t="s">
         <v>871</v>
       </c>
@@ -8234,7 +8223,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="489" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B489" s="1" t="s">
         <v>46</v>
       </c>
@@ -8242,7 +8231,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="490" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B490" s="1" t="s">
         <v>78</v>
       </c>
@@ -8250,7 +8239,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="491" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B491" s="1" t="s">
         <v>251</v>
       </c>
@@ -8258,7 +8247,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="492" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B492" s="1" t="s">
         <v>202</v>
       </c>
@@ -8266,7 +8255,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="493" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B493" s="1" t="s">
         <v>1109</v>
       </c>
@@ -8274,7 +8263,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="494" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B494" s="1" t="s">
         <v>626</v>
       </c>
@@ -8282,7 +8271,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="495" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B495" s="1" t="s">
         <v>1041</v>
       </c>
@@ -8290,7 +8279,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="496" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B496" s="1" t="s">
         <v>584</v>
       </c>
@@ -8298,7 +8287,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="497" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B497" s="1" t="s">
         <v>48</v>
       </c>
@@ -8306,7 +8295,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="498" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B498" s="1" t="s">
         <v>1071</v>
       </c>
@@ -8314,7 +8303,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="499" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B499" s="1" t="s">
         <v>212</v>
       </c>
@@ -8322,7 +8311,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="500" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B500" s="1" t="s">
         <v>968</v>
       </c>
@@ -8330,7 +8319,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="501" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B501" s="1" t="s">
         <v>645</v>
       </c>
@@ -8338,7 +8327,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="502" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B502" s="1" t="s">
         <v>61</v>
       </c>
@@ -8346,7 +8335,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="503" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B503" s="1" t="s">
         <v>197</v>
       </c>
@@ -8354,7 +8343,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="504" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B504" s="1" t="s">
         <v>142</v>
       </c>
@@ -8362,7 +8351,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="505" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B505" s="1" t="s">
         <v>103</v>
       </c>
@@ -8370,7 +8359,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="506" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B506" s="1" t="s">
         <v>128</v>
       </c>
@@ -8378,7 +8367,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="507" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B507" s="1" t="s">
         <v>260</v>
       </c>
@@ -8386,7 +8375,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="508" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B508" s="1" t="s">
         <v>950</v>
       </c>
@@ -8394,7 +8383,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="509" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B509" s="1" t="s">
         <v>151</v>
       </c>
@@ -8402,7 +8391,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="510" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B510" s="1" t="s">
         <v>1029</v>
       </c>
@@ -8410,7 +8399,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="511" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B511" s="1" t="s">
         <v>663</v>
       </c>
@@ -8418,7 +8407,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="512" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B512" s="1" t="s">
         <v>92</v>
       </c>
@@ -8426,7 +8415,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="513" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B513" s="1" t="s">
         <v>770</v>
       </c>
@@ -8434,7 +8423,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="514" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B514" s="1" t="s">
         <v>187</v>
       </c>
@@ -8442,7 +8431,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="515" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B515" s="1" t="s">
         <v>683</v>
       </c>
@@ -8450,7 +8439,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="516" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B516" s="1" t="s">
         <v>1044</v>
       </c>
@@ -8458,7 +8447,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="517" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B517" s="1" t="s">
         <v>14</v>
       </c>
@@ -8466,7 +8455,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="518" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B518" s="1" t="s">
         <v>622</v>
       </c>
@@ -8474,7 +8463,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="519" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B519" s="1" t="s">
         <v>213</v>
       </c>
@@ -8482,7 +8471,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="520" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B520" s="1" t="s">
         <v>1118</v>
       </c>
@@ -8490,7 +8479,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="521" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B521" s="1" t="s">
         <v>145</v>
       </c>
@@ -8498,7 +8487,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="522" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B522" s="1" t="s">
         <v>1020</v>
       </c>
@@ -8506,7 +8495,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="523" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B523" s="1" t="s">
         <v>1022</v>
       </c>
@@ -8514,7 +8503,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="524" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B524" s="1" t="s">
         <v>847</v>
       </c>
@@ -8522,7 +8511,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="525" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B525" s="1" t="s">
         <v>159</v>
       </c>
@@ -8530,7 +8519,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="526" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B526" s="1" t="s">
         <v>828</v>
       </c>
@@ -8538,7 +8527,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="527" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B527" s="1" t="s">
         <v>236</v>
       </c>
@@ -8546,7 +8535,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="528" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B528" s="1" t="s">
         <v>958</v>
       </c>
@@ -8554,7 +8543,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="529" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B529" s="1" t="s">
         <v>152</v>
       </c>
@@ -8562,7 +8551,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="530" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B530" s="1" t="s">
         <v>261</v>
       </c>
@@ -8570,7 +8559,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="531" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B531" s="1" t="s">
         <v>669</v>
       </c>
@@ -8578,7 +8567,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="532" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B532" s="1" t="s">
         <v>201</v>
       </c>
@@ -8586,7 +8575,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="533" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B533" s="1" t="s">
         <v>1201</v>
       </c>
@@ -8594,7 +8583,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="534" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B534" s="1" t="s">
         <v>52</v>
       </c>
@@ -8602,7 +8591,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="535" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B535" s="1" t="s">
         <v>169</v>
       </c>
@@ -8610,7 +8599,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="536" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B536" s="1" t="s">
         <v>869</v>
       </c>
@@ -8618,7 +8607,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="537" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B537" s="1" t="s">
         <v>136</v>
       </c>
@@ -8626,7 +8615,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="538" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B538" s="1" t="s">
         <v>1098</v>
       </c>
@@ -8634,7 +8623,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="539" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B539" s="1" t="s">
         <v>1125</v>
       </c>
@@ -8642,7 +8631,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="540" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B540" s="1" t="s">
         <v>949</v>
       </c>
@@ -8650,7 +8639,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="541" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B541" s="1" t="s">
         <v>144</v>
       </c>
@@ -8658,7 +8647,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="542" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B542" s="1" t="s">
         <v>129</v>
       </c>
@@ -8666,7 +8655,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="543" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B543" s="1" t="s">
         <v>876</v>
       </c>
@@ -8674,7 +8663,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="544" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B544" s="1" t="s">
         <v>915</v>
       </c>
@@ -8682,7 +8671,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="545" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B545" s="1" t="s">
         <v>695</v>
       </c>
@@ -8690,7 +8679,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="546" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B546" s="1" t="s">
         <v>673</v>
       </c>
@@ -8698,7 +8687,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="547" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B547" s="1" t="s">
         <v>710</v>
       </c>
@@ -8706,7 +8695,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="548" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B548" s="1" t="s">
         <v>732</v>
       </c>
@@ -8714,7 +8703,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="549" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B549" s="1" t="s">
         <v>223</v>
       </c>
@@ -8722,7 +8711,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="550" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B550" s="1" t="s">
         <v>992</v>
       </c>
@@ -8730,7 +8719,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="551" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B551" s="1" t="s">
         <v>1208</v>
       </c>
@@ -8738,7 +8727,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="552" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B552" s="1" t="s">
         <v>210</v>
       </c>
@@ -8746,7 +8735,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="553" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B553" s="1" t="s">
         <v>943</v>
       </c>
@@ -8754,7 +8743,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="554" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B554" s="1" t="s">
         <v>226</v>
       </c>
@@ -8762,7 +8751,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="555" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B555" s="1" t="s">
         <v>722</v>
       </c>
@@ -8770,7 +8759,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="556" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B556" s="1" t="s">
         <v>218</v>
       </c>
@@ -8778,7 +8767,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="557" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B557" s="1" t="s">
         <v>242</v>
       </c>
@@ -8786,7 +8775,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="558" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B558" s="1" t="s">
         <v>680</v>
       </c>
@@ -8794,7 +8783,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="559" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B559" s="1" t="s">
         <v>882</v>
       </c>
@@ -8802,7 +8791,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="560" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B560" s="1" t="s">
         <v>814</v>
       </c>
@@ -8810,7 +8799,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="561" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B561" s="1" t="s">
         <v>573</v>
       </c>
@@ -8818,7 +8807,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="562" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B562" s="1" t="s">
         <v>743</v>
       </c>
@@ -8826,7 +8815,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="563" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B563" s="1" t="s">
         <v>91</v>
       </c>
@@ -8834,7 +8823,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="564" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B564" s="1" t="s">
         <v>41</v>
       </c>
@@ -8842,7 +8831,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="565" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B565" s="1" t="s">
         <v>209</v>
       </c>
@@ -8850,7 +8839,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="566" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B566" s="1" t="s">
         <v>130</v>
       </c>
@@ -8858,7 +8847,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="567" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B567" s="1" t="s">
         <v>220</v>
       </c>
@@ -8866,7 +8855,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="568" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B568" s="1" t="s">
         <v>1145</v>
       </c>
@@ -8874,7 +8863,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="569" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B569" s="1" t="s">
         <v>250</v>
       </c>
@@ -8882,7 +8871,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="570" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B570" s="1" t="s">
         <v>215</v>
       </c>
@@ -8890,7 +8879,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="571" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B571" s="1" t="s">
         <v>198</v>
       </c>
@@ -8898,7 +8887,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="572" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B572" s="1" t="s">
         <v>216</v>
       </c>
@@ -8906,7 +8895,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="573" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B573" s="1" t="s">
         <v>191</v>
       </c>
@@ -8914,7 +8903,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="574" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B574" s="1" t="s">
         <v>990</v>
       </c>
@@ -8922,7 +8911,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="575" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B575" s="1" t="s">
         <v>605</v>
       </c>
@@ -8930,7 +8919,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="576" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B576" s="1" t="s">
         <v>19</v>
       </c>
@@ -8938,7 +8927,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="577" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B577" s="1" t="s">
         <v>575</v>
       </c>
@@ -8946,7 +8935,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="578" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B578" s="1" t="s">
         <v>182</v>
       </c>
@@ -8954,7 +8943,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="579" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B579" s="1" t="s">
         <v>163</v>
       </c>
@@ -8962,7 +8951,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="580" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B580" s="1" t="s">
         <v>1090</v>
       </c>
@@ -8970,7 +8959,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="581" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B581" s="1" t="s">
         <v>22</v>
       </c>
@@ -8978,7 +8967,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="582" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B582" s="1" t="s">
         <v>45</v>
       </c>
@@ -8986,7 +8975,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="583" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B583" s="1" t="s">
         <v>235</v>
       </c>
@@ -8994,7 +8983,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="584" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B584" s="1" t="s">
         <v>981</v>
       </c>
@@ -9002,7 +8991,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="585" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B585" s="1" t="s">
         <v>1031</v>
       </c>
@@ -9010,7 +8999,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="586" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B586" s="1" t="s">
         <v>537</v>
       </c>
@@ -9018,7 +9007,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="587" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B587" s="1" t="s">
         <v>689</v>
       </c>
@@ -9026,7 +9015,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="588" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B588" s="1" t="s">
         <v>109</v>
       </c>
@@ -9034,7 +9023,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="589" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B589" s="1" t="s">
         <v>752</v>
       </c>
@@ -9042,7 +9031,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="590" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B590" s="1" t="s">
         <v>115</v>
       </c>
@@ -9050,7 +9039,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="591" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B591" s="1" t="s">
         <v>117</v>
       </c>
@@ -9058,7 +9047,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="592" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B592" s="1" t="s">
         <v>121</v>
       </c>
@@ -9066,7 +9055,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="593" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B593" s="1" t="s">
         <v>112</v>
       </c>
@@ -9074,7 +9063,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="594" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B594" s="1" t="s">
         <v>818</v>
       </c>
@@ -9082,7 +9071,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="595" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B595" s="1" t="s">
         <v>525</v>
       </c>
@@ -9090,7 +9079,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="596" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B596" s="1" t="s">
         <v>723</v>
       </c>
@@ -9098,7 +9087,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="597" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B597" s="1" t="s">
         <v>714</v>
       </c>
@@ -9106,7 +9095,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="598" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B598" s="1" t="s">
         <v>183</v>
       </c>
@@ -9114,7 +9103,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="599" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B599" s="1" t="s">
         <v>1175</v>
       </c>
@@ -9122,7 +9111,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="600" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B600" s="1" t="s">
         <v>180</v>
       </c>
@@ -9130,7 +9119,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="601" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B601" s="1" t="s">
         <v>1014</v>
       </c>
@@ -9138,7 +9127,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="602" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B602" s="1" t="s">
         <v>170</v>
       </c>
@@ -9146,7 +9135,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="603" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B603" s="1" t="s">
         <v>608</v>
       </c>
@@ -9154,7 +9143,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="604" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B604" s="1" t="s">
         <v>844</v>
       </c>
@@ -9162,7 +9151,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="605" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B605" s="1" t="s">
         <v>983</v>
       </c>
@@ -9170,7 +9159,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="606" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B606" s="1" t="s">
         <v>1244</v>
       </c>
@@ -9178,7 +9167,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="607" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B607" s="1" t="s">
         <v>1120</v>
       </c>
@@ -9186,7 +9175,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="608" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B608" s="1" t="s">
         <v>691</v>
       </c>
@@ -9194,7 +9183,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="609" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B609" s="1" t="s">
         <v>1132</v>
       </c>
@@ -9202,7 +9191,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="610" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B610" s="1" t="s">
         <v>796</v>
       </c>
@@ -9210,7 +9199,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="611" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B611" s="1" t="s">
         <v>1024</v>
       </c>
@@ -9218,7 +9207,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="612" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B612" s="1" t="s">
         <v>24</v>
       </c>
@@ -9226,7 +9215,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="613" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B613" s="1" t="s">
         <v>149</v>
       </c>
@@ -9234,7 +9223,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="614" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B614" s="1" t="s">
         <v>543</v>
       </c>
@@ -9242,7 +9231,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="615" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B615" s="1" t="s">
         <v>39</v>
       </c>
@@ -9250,7 +9239,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="616" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B616" s="1" t="s">
         <v>699</v>
       </c>
@@ -9258,7 +9247,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="617" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B617" s="1" t="s">
         <v>1045</v>
       </c>
@@ -9266,7 +9255,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="618" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B618" s="1" t="s">
         <v>941</v>
       </c>
@@ -9274,7 +9263,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="619" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B619" s="1" t="s">
         <v>552</v>
       </c>
@@ -9282,7 +9271,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="620" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B620" s="1" t="s">
         <v>962</v>
       </c>
@@ -9290,7 +9279,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="621" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B621" s="1" t="s">
         <v>701</v>
       </c>
@@ -9298,7 +9287,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="622" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B622" s="1" t="s">
         <v>787</v>
       </c>
@@ -9306,7 +9295,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="623" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B623" s="1" t="s">
         <v>1123</v>
       </c>
@@ -9314,7 +9303,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="624" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B624" s="1" t="s">
         <v>806</v>
       </c>
@@ -9322,7 +9311,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="625" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B625" s="1" t="s">
         <v>137</v>
       </c>
@@ -9330,7 +9319,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="626" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B626" s="1" t="s">
         <v>774</v>
       </c>
@@ -9338,7 +9327,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="627" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B627" s="1" t="s">
         <v>85</v>
       </c>
@@ -9346,7 +9335,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="628" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B628" s="1" t="s">
         <v>178</v>
       </c>
@@ -9354,7 +9343,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="629" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B629" s="1" t="s">
         <v>1164</v>
       </c>
@@ -9362,7 +9351,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="630" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B630" s="1" t="s">
         <v>1042</v>
       </c>
@@ -9370,7 +9359,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="631" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B631" s="1" t="s">
         <v>74</v>
       </c>
@@ -9378,7 +9367,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="632" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B632" s="1" t="s">
         <v>730</v>
       </c>
@@ -9386,7 +9375,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="633" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B633" s="1" t="s">
         <v>171</v>
       </c>
@@ -9394,7 +9383,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="634" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B634" s="1" t="s">
         <v>76</v>
       </c>
@@ -9402,7 +9391,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="635" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B635" s="1" t="s">
         <v>83</v>
       </c>
@@ -9410,7 +9399,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="636" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B636" s="1" t="s">
         <v>1183</v>
       </c>
@@ -9418,7 +9407,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="637" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B637" s="1" t="s">
         <v>89</v>
       </c>
@@ -9426,7 +9415,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="638" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B638" s="1" t="s">
         <v>162</v>
       </c>
@@ -9434,7 +9423,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="639" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B639" s="1" t="s">
         <v>123</v>
       </c>
@@ -9442,7 +9431,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="640" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B640" s="1" t="s">
         <v>255</v>
       </c>
@@ -9450,7 +9439,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="641" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B641" s="1" t="s">
         <v>273</v>
       </c>
@@ -9458,7 +9447,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="642" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B642" s="1" t="s">
         <v>161</v>
       </c>
@@ -9466,7 +9455,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="643" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B643" s="1" t="s">
         <v>207</v>
       </c>
@@ -9474,7 +9463,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="644" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B644" s="1" t="s">
         <v>1199</v>
       </c>
@@ -9482,7 +9471,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="645" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B645" s="1" t="s">
         <v>667</v>
       </c>
@@ -9490,7 +9479,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="646" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B646" s="1" t="s">
         <v>16</v>
       </c>
@@ -9498,7 +9487,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="647" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B647" s="1" t="s">
         <v>1008</v>
       </c>
@@ -9506,7 +9495,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="648" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B648" s="1" t="s">
         <v>43</v>
       </c>
@@ -9514,7 +9503,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="649" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B649" s="1" t="s">
         <v>1012</v>
       </c>
@@ -9522,7 +9511,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="650" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B650" s="1" t="s">
         <v>930</v>
       </c>
@@ -9530,7 +9519,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="651" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B651" s="1" t="s">
         <v>632</v>
       </c>
@@ -9538,7 +9527,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="652" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B652" s="1" t="s">
         <v>784</v>
       </c>
@@ -9546,7 +9535,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="653" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B653" s="1" t="s">
         <v>895</v>
       </c>
@@ -9554,7 +9543,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="654" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B654" s="1" t="s">
         <v>1057</v>
       </c>
@@ -9562,7 +9551,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="655" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B655" s="1" t="s">
         <v>37</v>
       </c>
@@ -9570,7 +9559,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="656" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B656" s="1" t="s">
         <v>1018</v>
       </c>
@@ -9578,7 +9567,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="657" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B657" s="1" t="s">
         <v>7</v>
       </c>
@@ -9586,7 +9575,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="658" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B658" s="1" t="s">
         <v>975</v>
       </c>
@@ -9594,7 +9583,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="659" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B659" s="1" t="s">
         <v>816</v>
       </c>
@@ -9602,7 +9591,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="660" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B660" s="1" t="s">
         <v>222</v>
       </c>
@@ -9610,7 +9599,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="661" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B661" s="1" t="s">
         <v>956</v>
       </c>
@@ -9618,7 +9607,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="662" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B662" s="1" t="s">
         <v>34</v>
       </c>

--- a/vocabulary/family-life.xlsx
+++ b/vocabulary/family-life.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1272">
   <si>
     <t>#</t>
   </si>
@@ -3829,13 +3829,19 @@
   </si>
   <si>
     <t>chúc may mắn</t>
+  </si>
+  <si>
+    <t>wives</t>
+  </si>
+  <si>
+    <t>những người vợ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3848,6 +3854,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3870,13 +3881,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3992,10 +4006,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1495" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C1495"/>
-  <sortState ref="A2:C662">
-    <sortCondition ref="B1:B1495"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C1496" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C1496"/>
+  <sortState ref="A2:C663">
+    <sortCondition ref="B1:B1496"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="#" dataDxfId="2"/>
@@ -4295,7 +4309,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4303,10 +4317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C662"/>
+  <dimension ref="A1:C663"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A634" workbookViewId="0">
+      <selection activeCell="B638" sqref="B638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4369,42 +4383,42 @@
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>616</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>617</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>826</v>
+        <v>616</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>827</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1150</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1151</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1212</v>
+        <v>826</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1213</v>
+        <v>827</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1214</v>
+        <v>1150</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1215</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4473,26 +4487,26 @@
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>1258</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>281</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>583</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>491</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>1258</v>
+        <v>583</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1259</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4561,18 +4575,18 @@
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>231</v>
+        <v>1206</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>286</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>1206</v>
+        <v>231</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1207</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5177,26 +5191,26 @@
     </row>
     <row r="108" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
-        <v>1210</v>
+        <v>734</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1211</v>
+        <v>735</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
-        <v>734</v>
+        <v>265</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>735</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
-        <v>265</v>
+        <v>1210</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>316</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6129,18 +6143,18 @@
     </row>
     <row r="227" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="1" t="s">
-        <v>1221</v>
+        <v>979</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>971</v>
+        <v>980</v>
       </c>
     </row>
     <row r="228" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="1" t="s">
-        <v>979</v>
+        <v>1221</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
     </row>
     <row r="229" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6553,66 +6567,66 @@
     </row>
     <row r="280" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="1" t="s">
-        <v>628</v>
+        <v>755</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>385</v>
+        <v>318</v>
       </c>
     </row>
     <row r="281" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="1" t="s">
-        <v>25</v>
+        <v>628</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="282" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="1" t="s">
-        <v>572</v>
+        <v>25</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="283" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="1" t="s">
-        <v>782</v>
+        <v>541</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>783</v>
+        <v>542</v>
       </c>
     </row>
     <row r="284" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="1" t="s">
-        <v>27</v>
+        <v>572</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="285" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="1" t="s">
-        <v>8</v>
+        <v>782</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>385</v>
+        <v>783</v>
       </c>
     </row>
     <row r="286" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="1" t="s">
-        <v>755</v>
+        <v>27</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
     </row>
     <row r="287" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="1" t="s">
-        <v>541</v>
+        <v>8</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>542</v>
+        <v>385</v>
       </c>
     </row>
     <row r="288" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6705,15 +6719,15 @@
     </row>
     <row r="299" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="1" t="s">
-        <v>266</v>
+        <v>1224</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>390</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="300" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="1" t="s">
-        <v>629</v>
+        <v>266</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>390</v>
@@ -6721,34 +6735,34 @@
     </row>
     <row r="301" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="1" t="s">
-        <v>1082</v>
+        <v>629</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>1083</v>
+        <v>390</v>
       </c>
     </row>
     <row r="302" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="1" t="s">
-        <v>763</v>
+        <v>1082</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>764</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="303" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="1" t="s">
-        <v>1181</v>
+        <v>763</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>1182</v>
+        <v>764</v>
       </c>
     </row>
     <row r="304" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="1" t="s">
-        <v>1224</v>
+        <v>1181</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>1225</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="305" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6777,18 +6791,18 @@
     </row>
     <row r="308" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="1" t="s">
-        <v>58</v>
+        <v>849</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>392</v>
+        <v>850</v>
       </c>
     </row>
     <row r="309" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B309" s="1" t="s">
-        <v>849</v>
+        <v>58</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>850</v>
+        <v>392</v>
       </c>
     </row>
     <row r="310" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7145,26 +7159,26 @@
     </row>
     <row r="354" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="1" t="s">
-        <v>1004</v>
+        <v>1254</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1005</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="355" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B355" s="1" t="s">
-        <v>518</v>
+        <v>1004</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>308</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="356" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="1" t="s">
-        <v>1254</v>
+        <v>518</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1255</v>
+        <v>308</v>
       </c>
     </row>
     <row r="357" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7249,42 +7263,42 @@
     </row>
     <row r="367" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="1" t="s">
-        <v>1248</v>
+        <v>189</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1249</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="368" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1149</v>
+        <v>409</v>
       </c>
     </row>
     <row r="369" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B369" s="1" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="370" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="1" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="371" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="1" t="s">
-        <v>174</v>
+        <v>1248</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>411</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="372" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7545,26 +7559,26 @@
     </row>
     <row r="404" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B404" s="1" t="s">
-        <v>615</v>
+        <v>1203</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1028</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="405" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B405" s="1" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>580</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="406" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B406" s="1" t="s">
-        <v>1203</v>
+        <v>579</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1204</v>
+        <v>580</v>
       </c>
     </row>
     <row r="407" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8569,18 +8583,18 @@
     </row>
     <row r="532" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B532" s="1" t="s">
-        <v>201</v>
+        <v>1201</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>460</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="533" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B533" s="1" t="s">
-        <v>1201</v>
+        <v>201</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1202</v>
+        <v>460</v>
       </c>
     </row>
     <row r="534" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8713,18 +8727,18 @@
     </row>
     <row r="550" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B550" s="1" t="s">
-        <v>992</v>
+        <v>1208</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>993</v>
+        <v>402</v>
       </c>
     </row>
     <row r="551" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B551" s="1" t="s">
-        <v>1208</v>
+        <v>992</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>402</v>
+        <v>993</v>
       </c>
     </row>
     <row r="552" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9439,7 +9453,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="641" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B641" s="1" t="s">
         <v>273</v>
       </c>
@@ -9447,7 +9461,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="642" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B642" s="1" t="s">
         <v>161</v>
       </c>
@@ -9455,7 +9469,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="643" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B643" s="1" t="s">
         <v>207</v>
       </c>
@@ -9463,7 +9477,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="644" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B644" s="1" t="s">
         <v>1199</v>
       </c>
@@ -9471,7 +9485,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="645" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B645" s="1" t="s">
         <v>667</v>
       </c>
@@ -9479,7 +9493,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="646" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B646" s="1" t="s">
         <v>16</v>
       </c>
@@ -9487,132 +9501,141 @@
         <v>504</v>
       </c>
     </row>
-    <row r="647" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B647" s="1" t="s">
+    <row r="647" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A647" s="3"/>
+      <c r="B647" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B648" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="C647" s="1" t="s">
+      <c r="C648" s="1" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="648" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B648" s="1" t="s">
+    <row r="649" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B649" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C648" s="1" t="s">
+      <c r="C649" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="649" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B649" s="1" t="s">
+    <row r="650" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B650" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C649" s="1" t="s">
+      <c r="C650" s="1" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="650" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B650" s="1" t="s">
+    <row r="651" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B651" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C650" s="1" t="s">
+      <c r="C651" s="1" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="651" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B651" s="1" t="s">
+    <row r="652" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B652" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="C651" s="1" t="s">
+      <c r="C652" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="652" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B652" s="1" t="s">
+    <row r="653" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B653" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C652" s="1" t="s">
+      <c r="C653" s="1" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="653" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B653" s="1" t="s">
+    <row r="654" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B654" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C653" s="1" t="s">
+      <c r="C654" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="654" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B654" s="1" t="s">
+    <row r="655" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B655" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C654" s="1" t="s">
+      <c r="C655" s="1" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="655" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B655" s="1" t="s">
+    <row r="656" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B656" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C655" s="1" t="s">
+      <c r="C656" s="1" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="656" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B656" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C656" s="1" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="657" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B657" s="1" t="s">
-        <v>7</v>
+        <v>1018</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>352</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="658" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B658" s="1" t="s">
-        <v>975</v>
+        <v>7</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>976</v>
+        <v>352</v>
       </c>
     </row>
     <row r="659" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B659" s="1" t="s">
-        <v>816</v>
+        <v>222</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>817</v>
+        <v>517</v>
       </c>
     </row>
     <row r="660" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B660" s="1" t="s">
-        <v>222</v>
+        <v>956</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>517</v>
+        <v>957</v>
       </c>
     </row>
     <row r="661" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B661" s="1" t="s">
-        <v>956</v>
+        <v>34</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>957</v>
+        <v>508</v>
       </c>
     </row>
     <row r="662" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B662" s="1" t="s">
-        <v>34</v>
+        <v>975</v>
       </c>
       <c r="C662" s="1" t="s">
-        <v>508</v>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="663" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B663" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary/family-life.xlsx
+++ b/vocabulary/family-life.xlsx
@@ -3859,6 +3859,7 @@
       <sz val="15"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3886,11 +3887,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4309,7 +4310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4319,8 +4320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C663"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A634" workbookViewId="0">
-      <selection activeCell="B638" sqref="B638"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4331,7 +4332,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -9502,11 +9503,11 @@
       </c>
     </row>
     <row r="647" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A647" s="3"/>
-      <c r="B647" s="3" t="s">
+      <c r="A647" s="2"/>
+      <c r="B647" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="C647" s="3" t="s">
+      <c r="C647" s="2" t="s">
         <v>1271</v>
       </c>
     </row>

--- a/vocabulary/family-life.xlsx
+++ b/vocabulary/family-life.xlsx
@@ -318,9 +318,6 @@
     <t>fun</t>
   </si>
   <si>
-    <t>Meaning</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
@@ -3835,6 +3832,9 @@
   </si>
   <si>
     <t>những người vợ</t>
+  </si>
+  <si>
+    <t>Ý Nghĩa</t>
   </si>
 </sst>
 </file>
@@ -4015,7 +4015,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="#" dataDxfId="2"/>
     <tableColumn id="2" name="English" dataDxfId="1"/>
-    <tableColumn id="3" name="Meaning" dataDxfId="0"/>
+    <tableColumn id="3" name="Ý Nghĩa" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4310,7 +4310,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4321,7 +4321,7 @@
   <dimension ref="A1:C663"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4339,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4347,31 +4347,31 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4379,119 +4379,119 @@
         <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1212</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1214</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>1227</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>1258</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4499,31 +4499,31 @@
         <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4531,31 +4531,31 @@
         <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4563,31 +4563,31 @@
         <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>1206</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4595,63 +4595,63 @@
         <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>1169</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4659,223 +4659,223 @@
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>1262</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4883,87 +4883,87 @@
         <v>69</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>1167</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4971,7 +4971,7 @@
         <v>90</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4979,15 +4979,15 @@
         <v>26</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -4995,15 +4995,15 @@
         <v>97</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5011,119 +5011,119 @@
         <v>29</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="92" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="93" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5131,23 +5131,23 @@
         <v>67</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>1171</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>1172</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5155,71 +5155,71 @@
         <v>80</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>734</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="111" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5227,7 +5227,7 @@
         <v>36</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5235,111 +5235,111 @@
         <v>40</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="115" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="117" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="118" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="119" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="121" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="124" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>808</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="125" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="126" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="127" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5347,95 +5347,95 @@
         <v>68</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="128" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="129" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="130" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="132" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="133" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>924</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="134" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="136" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="138" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="139" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5443,31 +5443,31 @@
         <v>31</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="140" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="141" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="142" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>838</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="143" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5475,15 +5475,15 @@
         <v>62</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="144" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5491,71 +5491,71 @@
         <v>33</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="149" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="150" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="151" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="152" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="154" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5563,79 +5563,79 @@
         <v>71</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="156" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="157" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="158" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="159" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="160" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="161" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="162" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="163" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5643,31 +5643,31 @@
         <v>77</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="165" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="166" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>1252</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="167" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5675,39 +5675,39 @@
         <v>20</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="169" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="172" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="173" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5715,63 +5715,63 @@
         <v>55</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="174" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="175" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="176" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="177" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="178" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="179" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="180" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="181" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5779,15 +5779,15 @@
         <v>93</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="182" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="183" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5795,31 +5795,31 @@
         <v>64</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="184" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="185" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="186" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="187" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5827,95 +5827,95 @@
         <v>15</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="188" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="189" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="190" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="191" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="192" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="193" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="194" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="195" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="196" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="197" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="198" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="199" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5923,7 +5923,7 @@
         <v>10</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="200" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5931,31 +5931,31 @@
         <v>53</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="201" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="202" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="203" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5963,15 +5963,15 @@
         <v>21</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="205" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -5979,31 +5979,31 @@
         <v>18</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="207" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>1048</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="209" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="210" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6011,231 +6011,231 @@
         <v>98</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="211" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="212" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="213" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="214" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>1242</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="215" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="216" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="217" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="218" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="219" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>1179</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="220" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="221" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="222" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>834</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="223" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>1266</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="224" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="225" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="226" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="227" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="228" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="229" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="230" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="231" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>1268</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="232" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="233" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="234" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="235" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="236" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="237" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="239" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6243,103 +6243,103 @@
         <v>79</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="240" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="241" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="242" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="243" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="244" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="245" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="246" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="247" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="248" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="249" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="250" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="251" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B251" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="252" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6347,31 +6347,31 @@
         <v>70</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="253" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B253" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="254" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B254" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>1229</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="255" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="256" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6379,7 +6379,7 @@
         <v>82</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="257" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6387,7 +6387,7 @@
         <v>3</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="258" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6395,7 +6395,7 @@
         <v>49</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="259" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6403,15 +6403,15 @@
         <v>54</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="260" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="261" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6419,47 +6419,47 @@
         <v>4</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="262" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="263" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="264" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="265" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="266" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="267" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6467,39 +6467,39 @@
         <v>66</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="268" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="269" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="270" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>1193</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="272" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6507,7 +6507,7 @@
         <v>81</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="273" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6515,15 +6515,15 @@
         <v>2</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="274" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="275" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6531,7 +6531,7 @@
         <v>50</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="276" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6539,23 +6539,23 @@
         <v>5</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="277" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="278" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="279" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6563,23 +6563,23 @@
         <v>28</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="280" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="281" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="282" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6587,31 +6587,31 @@
         <v>25</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="283" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="284" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="285" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="286" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6619,7 +6619,7 @@
         <v>27</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="287" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6627,15 +6627,15 @@
         <v>8</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="288" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="289" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6643,127 +6643,127 @@
         <v>63</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="290" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="291" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="292" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="293" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="294" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>1197</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="295" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="296" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>1264</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="297" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="298" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="299" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>1224</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="300" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="301" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B301" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="302" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B302" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="303" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B303" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="304" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B304" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>1181</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="305" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6771,31 +6771,31 @@
         <v>65</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="306" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B306" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="307" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B307" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="308" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="309" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6803,7 +6803,7 @@
         <v>58</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="310" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6811,7 +6811,7 @@
         <v>60</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="311" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6819,23 +6819,23 @@
         <v>23</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="312" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B312" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>1065</v>
       </c>
     </row>
     <row r="313" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B313" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="314" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6843,47 +6843,47 @@
         <v>75</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="315" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B315" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>1216</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="316" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B316" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="317" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B317" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="318" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B318" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="319" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B319" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="320" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6891,7 +6891,7 @@
         <v>44</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="321" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6899,23 +6899,23 @@
         <v>96</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="322" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B322" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="323" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B323" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="324" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -6923,319 +6923,319 @@
         <v>84</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="325" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B325" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="326" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B326" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="327" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B327" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="328" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B328" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="329" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B329" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="330" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B330" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>766</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="331" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B331" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="332" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B332" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="333" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B333" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="334" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B334" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="335" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B335" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="336" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B336" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>1222</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="337" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B337" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="338" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B338" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="339" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B339" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="340" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B340" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C340" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="341" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B341" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="342" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B342" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="343" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B343" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="344" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B344" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>1189</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="345" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B345" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="346" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B346" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="347" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B347" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="348" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B348" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="349" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B349" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="350" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B350" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="351" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B351" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="352" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B352" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="353" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B353" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="354" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B354" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>1254</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="355" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B355" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="356" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B356" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="357" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B357" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="358" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B358" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="359" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B359" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="360" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B360" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="361" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B361" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C361" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="362" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B362" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="363" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B363" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="364" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7243,39 +7243,39 @@
         <v>72</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="365" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B365" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="366" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B366" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="367" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B367" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="368" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B368" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="369" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7283,39 +7283,39 @@
         <v>59</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="370" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B370" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="371" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B371" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>1248</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="372" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B372" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="373" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B373" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="374" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7323,15 +7323,15 @@
         <v>35</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="375" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B375" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>1173</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="376" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7339,39 +7339,39 @@
         <v>38</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="377" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B377" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="378" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B378" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="379" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B379" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C379" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="380" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B380" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="381" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7379,71 +7379,71 @@
         <v>57</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="382" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B382" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="383" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B383" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="384" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B384" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="385" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B385" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="386" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B386" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="387" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B387" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="388" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B388" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="389" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B389" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="390" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7451,71 +7451,71 @@
         <v>95</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="391" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="392" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B392" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>1260</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="393" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B393" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="394" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B394" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="395" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B395" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="396" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B396" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>1231</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="397" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B397" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="398" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B398" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="399" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7523,111 +7523,111 @@
         <v>51</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="400" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B400" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="401" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B401" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>1256</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="402" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B402" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="403" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B403" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C403" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="404" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B404" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>1203</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="405" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B405" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="406" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B406" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C406" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="407" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B407" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="408" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B408" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="409" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B409" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="410" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B410" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="411" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B411" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="412" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B412" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="413" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7635,143 +7635,143 @@
         <v>12</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="414" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B414" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C414" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="415" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B415" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="416" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B416" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="417" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B417" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C417" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="418" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B418" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C418" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="419" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B419" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C419" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="420" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B420" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="421" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B421" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="422" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B422" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C422" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="423" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B423" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="424" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B424" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C424" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="425" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B425" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="426" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B426" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C426" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="427" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B427" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="428" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B428" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C428" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="429" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B429" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="430" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B430" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="431" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7779,55 +7779,55 @@
         <v>9</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="432" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B432" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C432" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="433" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B433" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="434" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B434" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="435" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B435" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="436" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B436" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C436" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="C436" s="1" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="437" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B437" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C437" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="C437" s="1" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="438" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7835,55 +7835,55 @@
         <v>30</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="439" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B439" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="440" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B440" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C440" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="441" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B441" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C441" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="442" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B442" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="443" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B443" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C443" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="444" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B444" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C444" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="445" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7891,79 +7891,79 @@
         <v>86</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="446" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B446" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="447" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B447" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="448" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B448" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="449" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B449" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C449" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="450" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B450" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C450" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="451" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B451" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="452" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B452" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C452" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="453" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B453" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C453" s="1" t="s">
         <v>1250</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="454" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B454" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C454" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="455" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7971,143 +7971,143 @@
         <v>32</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="456" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B456" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C456" s="1" t="s">
         <v>1177</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="457" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B457" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="458" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B458" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="459" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B459" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="460" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B460" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="461" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B461" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="462" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B462" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>1185</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="463" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B463" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="464" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B464" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C464" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="465" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B465" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C465" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="466" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B466" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="467" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B467" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C467" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="468" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B468" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C468" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="469" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B469" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="470" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B470" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C470" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="471" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B471" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C471" s="1" t="s">
         <v>1246</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="472" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B472" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C472" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="473" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8115,55 +8115,55 @@
         <v>87</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="474" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B474" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C474" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="475" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B475" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C475" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="476" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B476" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="477" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B477" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="478" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B478" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C478" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="479" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B479" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C479" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="480" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8171,15 +8171,15 @@
         <v>13</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="481" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B481" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="482" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8187,39 +8187,39 @@
         <v>56</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="483" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B483" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="C483" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="484" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B484" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C484" s="1" t="s">
         <v>1100</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="485" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B485" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="486" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B486" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="487" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8227,15 +8227,15 @@
         <v>42</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="488" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B488" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C488" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="489" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8243,7 +8243,7 @@
         <v>46</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="490" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8251,55 +8251,55 @@
         <v>78</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="491" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B491" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="492" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B492" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="493" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B493" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C493" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="494" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B494" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C494" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="495" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B495" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="496" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B496" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="497" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8307,39 +8307,39 @@
         <v>48</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="498" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B498" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C498" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="499" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B499" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="500" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B500" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C500" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="C500" s="1" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="501" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B501" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C501" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="502" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8347,79 +8347,79 @@
         <v>61</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="503" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B503" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="504" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B504" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="505" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B505" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="506" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B506" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="507" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B507" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="508" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B508" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C508" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="509" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B509" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="510" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B510" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C510" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="C510" s="1" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="511" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B511" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C511" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="C511" s="1" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="512" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8427,39 +8427,39 @@
         <v>92</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="513" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B513" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C513" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="514" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B514" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="515" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B515" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C515" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="516" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B516" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="517" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8467,135 +8467,135 @@
         <v>14</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="518" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B518" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C518" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="C518" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="519" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B519" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="520" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B520" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C520" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="C520" s="1" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="521" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B521" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="522" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B522" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C522" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="523" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B523" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C523" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="524" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B524" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C524" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="525" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B525" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="526" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B526" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C526" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="C526" s="1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="527" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B527" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="528" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B528" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C528" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="529" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B529" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="530" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B530" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="531" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B531" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C531" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="532" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B532" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C532" s="1" t="s">
         <v>1201</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="533" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B533" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="534" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8603,231 +8603,231 @@
         <v>52</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="535" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B535" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="536" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B536" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C536" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="537" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B537" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="538" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B538" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C538" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="539" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B539" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C539" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="540" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B540" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="541" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B541" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="542" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B542" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="543" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B543" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C543" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="544" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B544" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="545" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B545" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C545" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="546" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B546" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C546" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="C546" s="1" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="547" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B547" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C547" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="548" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B548" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C548" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="549" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B549" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="550" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B550" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="551" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B551" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C551" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="552" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B552" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="553" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B553" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C553" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="554" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B554" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="555" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B555" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="556" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B556" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="557" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B557" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="558" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B558" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C558" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="C558" s="1" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="559" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B559" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="560" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B560" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C560" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="C560" s="1" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="561" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B561" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C561" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="C561" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="562" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B562" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C562" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="C562" s="1" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="563" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8835,7 +8835,7 @@
         <v>91</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="564" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8843,95 +8843,95 @@
         <v>41</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="565" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B565" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="566" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B566" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="567" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B567" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="568" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B568" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C568" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="C568" s="1" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="569" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B569" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="570" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B570" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="571" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B571" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="572" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B572" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="573" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B573" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="574" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B574" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C574" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="C574" s="1" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="575" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B575" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C575" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="C575" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="576" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8939,39 +8939,39 @@
         <v>19</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="577" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B577" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C577" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="C577" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="578" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B578" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="579" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B579" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="580" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B580" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C580" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="C580" s="1" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="581" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8979,7 +8979,7 @@
         <v>22</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="582" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -8987,239 +8987,239 @@
         <v>45</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="583" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B583" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="584" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B584" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C584" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="C584" s="1" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="585" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B585" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C585" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="C585" s="1" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="586" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B586" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C586" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="C586" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="587" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B587" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C587" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="C587" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="588" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B588" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="589" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B589" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C589" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="C589" s="1" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="590" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B590" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="591" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B591" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="592" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B592" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="593" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B593" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="594" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B594" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C594" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="C594" s="1" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="595" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B595" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C595" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="C595" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="596" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B596" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C596" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="C596" s="1" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="597" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B597" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C597" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="C597" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="598" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B598" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="599" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B599" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C599" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="C599" s="1" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="600" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B600" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="601" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B601" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C601" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="C601" s="1" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="602" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B602" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="603" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B603" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C603" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="C603" s="1" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="604" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B604" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C604" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="C604" s="1" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="605" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B605" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C605" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="C605" s="1" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="606" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B606" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C606" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="C606" s="1" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="607" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B607" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C607" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="C607" s="1" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="608" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B608" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C608" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="C608" s="1" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="609" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B609" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C609" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="C609" s="1" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="610" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B610" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C610" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="C610" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="611" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B611" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C611" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="C611" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="612" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9227,23 +9227,23 @@
         <v>24</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="613" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B613" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="614" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B614" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C614" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="C614" s="1" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="615" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9251,95 +9251,95 @@
         <v>39</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="616" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B616" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C616" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="C616" s="1" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="617" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B617" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C617" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="C617" s="1" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="618" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B618" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="619" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B619" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="620" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B620" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C620" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="C620" s="1" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="621" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B621" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C621" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="C621" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="622" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B622" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C622" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="C622" s="1" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="623" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B623" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C623" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="C623" s="1" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="624" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B624" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C624" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="C624" s="1" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="625" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B625" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="626" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B626" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="627" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9347,31 +9347,31 @@
         <v>85</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="628" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B628" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="629" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B629" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C629" s="1" t="s">
         <v>1164</v>
-      </c>
-      <c r="C629" s="1" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="630" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B630" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C630" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="C630" s="1" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="631" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9379,23 +9379,23 @@
         <v>74</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="632" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B632" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C632" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="C632" s="1" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="633" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B633" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="634" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9403,7 +9403,7 @@
         <v>76</v>
       </c>
       <c r="C634" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="635" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9411,15 +9411,15 @@
         <v>83</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="636" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B636" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C636" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="C636" s="1" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="637" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9427,71 +9427,71 @@
         <v>89</v>
       </c>
       <c r="C637" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="638" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B638" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="639" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B639" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="640" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B640" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B641" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B642" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="643" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B643" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="644" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B644" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C644" s="1" t="s">
         <v>1199</v>
-      </c>
-      <c r="C644" s="1" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="645" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B645" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C645" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="C645" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9499,24 +9499,24 @@
         <v>16</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="647" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
       <c r="B647" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C647" s="2" t="s">
         <v>1270</v>
-      </c>
-      <c r="C647" s="2" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="648" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B648" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C648" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="C648" s="1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="649" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9524,55 +9524,55 @@
         <v>43</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="650" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B650" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C650" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="C650" s="1" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="651" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B651" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C651" s="1" t="s">
         <v>930</v>
-      </c>
-      <c r="C651" s="1" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="652" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B652" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C652" s="1" t="s">
         <v>632</v>
-      </c>
-      <c r="C652" s="1" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="653" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B653" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C653" s="1" t="s">
         <v>784</v>
-      </c>
-      <c r="C653" s="1" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="654" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B654" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C654" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="C654" s="1" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="655" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B655" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C655" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="C655" s="1" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="656" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9580,15 +9580,15 @@
         <v>37</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="657" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B657" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C657" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="C657" s="1" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="658" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9596,23 +9596,23 @@
         <v>7</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="659" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B659" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="660" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B660" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C660" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="C660" s="1" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="661" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -9620,23 +9620,23 @@
         <v>34</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="662" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B662" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C662" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="C662" s="1" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="663" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B663" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C663" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="C663" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
   </sheetData>
